--- a/inst/data/demo_experiment.xlsx
+++ b/inst/data/demo_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shraimr/Library/CloudStorage/Box-Box/Rawan/RMS PhD Project/RMS_DIA/Code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmet\Dropbox\rawan.ahmet\immunotarget\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93573539-7141-BE48-B734-3E8CC68F0088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF7C21-3B76-47D2-B2CB-A859B616303D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18580" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14830" yWindow="810" windowWidth="14370" windowHeight="14710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -434,12 +434,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -520,7 +520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -548,7 +548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -590,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -604,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -618,7 +618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
